--- a/data/alldata.xlsx
+++ b/data/alldata.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
   <si>
     <t>Wyoming</t>
   </si>
@@ -351,6 +354,36 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Title: Number of Deaths Due to Injury by Firearms per 100,000 Population | The Henry J. Kaiser Family Foundation</t>
+  </si>
+  <si>
+    <t>Timeframe: 2015</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Firearms Death Rate per 100,000</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Age-adjusted rates per 100,000 U.S. standard population. Rates for the United States and each state are based on populations enumerated in the 2010 census as of July 1, 2013. Since death rates are affected by the population composition of a given area, age-adjusted death rates should be used for comparisons between areas because they control for differences in population composition.</t>
+  </si>
+  <si>
+    <t>Causes of death attributable to firearm mortality include ICD-10 Codes W32-W34, Accidental discharge of firearm; Codes X72-X74, Intentional self-harm by firearm; X93-X95, Assault by firearm; Y22-Y24, Firearm discharge, undetermined intent; and Y35.0, Legal intervention involving firearm discharge. Deaths from injury by firearms exclude deaths due to explosives and other causes indirectly related to firearms.</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention, National Center for Health Statistics. Underlying Cause of Death 1999-2015 on [CDC WONDER Online Database](http://wonder.cdc.gov/), released 2016. Data are from the Multiple Cause of Death Files, 1999-2015, as compiled from data provided by the 57 vital statistics jurisdictions through the Vital Statistics Cooperative Program. Accessed at http://wonder.cdc.gov/ucd-icd10.html on May 1, 2017.</t>
   </si>
 </sst>
 </file>
@@ -690,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,240 +748,240 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>195.7</v>
       </c>
       <c r="C2" s="2">
-        <v>96744</v>
+        <v>114052</v>
       </c>
       <c r="D2" s="2">
-        <v>4833722</v>
+        <v>582658</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
-        <v>15.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C3" s="2">
-        <v>11167</v>
+        <v>42897</v>
       </c>
       <c r="D3" s="2">
-        <v>735132</v>
+        <v>646449</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
-        <v>9.4</v>
+        <v>41.6</v>
       </c>
       <c r="C4" s="2">
-        <v>62527</v>
+        <v>123130</v>
       </c>
       <c r="D4" s="2">
-        <v>6626624</v>
+        <v>2959373</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
-        <v>41.6</v>
+        <v>40.5</v>
       </c>
       <c r="C5" s="2">
-        <v>123130</v>
+        <v>84471</v>
       </c>
       <c r="D5" s="2">
-        <v>2959373</v>
+        <v>2085287</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
-        <v>7.6</v>
+        <v>30.1</v>
       </c>
       <c r="C6" s="2">
-        <v>292877</v>
+        <v>248939</v>
       </c>
       <c r="D6" s="2">
-        <v>38332521</v>
+        <v>8260405</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>24.2</v>
       </c>
       <c r="C7" s="2">
-        <v>63178</v>
+        <v>39019</v>
       </c>
       <c r="D7" s="2">
-        <v>5268367</v>
+        <v>1612136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
-        <v>11.3</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>40740</v>
+        <v>96744</v>
       </c>
       <c r="D8" s="2">
-        <v>3596080</v>
+        <v>4833722</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1">
-        <v>4.2</v>
+        <v>19.5</v>
       </c>
       <c r="C9" s="2">
-        <v>3907</v>
+        <v>54436</v>
       </c>
       <c r="D9" s="2">
-        <v>925749</v>
+        <v>2790136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
-        <v>66.400000000000006</v>
+        <v>15.2</v>
       </c>
       <c r="C10" s="2">
-        <v>42897</v>
+        <v>11167</v>
       </c>
       <c r="D10" s="2">
-        <v>646449</v>
+        <v>735132</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1">
-        <v>10.199999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="C11" s="2">
-        <v>199828</v>
+        <v>69668</v>
       </c>
       <c r="D11" s="2">
-        <v>19552860</v>
+        <v>4625470</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>145412</v>
+        <v>88732</v>
       </c>
       <c r="D12" s="2">
-        <v>9992167</v>
+        <v>5928814</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
-        <v>5.0999999999999996</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>7105</v>
+        <v>191189</v>
       </c>
       <c r="D13" s="2">
-        <v>1404054</v>
+        <v>12773801</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1">
-        <v>24.2</v>
+        <v>14.6</v>
       </c>
       <c r="C14" s="2">
-        <v>39019</v>
+        <v>145412</v>
       </c>
       <c r="D14" s="2">
-        <v>1612136</v>
+        <v>9992167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1">
-        <v>9.1999999999999993</v>
+        <v>14.6</v>
       </c>
       <c r="C15" s="2">
-        <v>118295</v>
+        <v>19284</v>
       </c>
       <c r="D15" s="2">
-        <v>12882135</v>
+        <v>1323459</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,622 +1003,1662 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
-        <v>6.1</v>
+        <v>13.5</v>
       </c>
       <c r="C17" s="2">
-        <v>18880</v>
+        <v>59240</v>
       </c>
       <c r="D17" s="2">
-        <v>3090416</v>
+        <v>4395295</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="C18" s="2">
-        <v>31926</v>
+        <v>37490</v>
       </c>
       <c r="D18" s="2">
-        <v>2893957</v>
+        <v>2900872</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="C19" s="2">
-        <v>59240</v>
+        <v>337309</v>
       </c>
       <c r="D19" s="2">
-        <v>4395295</v>
+        <v>26448193</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1">
-        <v>15.1</v>
+        <v>12.3</v>
       </c>
       <c r="C20" s="2">
-        <v>69668</v>
+        <v>47419</v>
       </c>
       <c r="D20" s="2">
-        <v>4625470</v>
+        <v>3850568</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1">
-        <v>8.6999999999999993</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>11509</v>
+        <v>63178</v>
       </c>
       <c r="D21" s="2">
-        <v>1328302</v>
+        <v>5268367</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1">
-        <v>15</v>
+        <v>11.6</v>
       </c>
       <c r="C22" s="2">
-        <v>88732</v>
+        <v>55286</v>
       </c>
       <c r="D22" s="2">
-        <v>5928814</v>
+        <v>4774839</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1">
-        <v>4.9000000000000004</v>
+        <v>11.5</v>
       </c>
       <c r="C23" s="2">
-        <v>32682</v>
+        <v>9677</v>
       </c>
       <c r="D23" s="2">
-        <v>6692824</v>
+        <v>844877</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1">
-        <v>4.3</v>
+        <v>11.4</v>
       </c>
       <c r="C24" s="2">
-        <v>42855</v>
+        <v>131990</v>
       </c>
       <c r="D24" s="2">
-        <v>9895622</v>
+        <v>11570808</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
       <c r="C25" s="2">
-        <v>51658</v>
+        <v>44811</v>
       </c>
       <c r="D25" s="2">
-        <v>5420380</v>
+        <v>3930065</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
       <c r="C26" s="2">
-        <v>20389</v>
+        <v>40740</v>
       </c>
       <c r="D26" s="2">
-        <v>2991207</v>
+        <v>3596080</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1">
-        <v>8.5</v>
+        <v>11.3</v>
       </c>
       <c r="C27" s="2">
-        <v>51550</v>
+        <v>11461</v>
       </c>
       <c r="D27" s="2">
-        <v>6044171</v>
+        <v>1015165</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1">
         <v>11.3</v>
       </c>
       <c r="C28" s="2">
-        <v>11461</v>
+        <v>73320</v>
       </c>
       <c r="D28" s="2">
-        <v>1015165</v>
+        <v>6495978</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1">
-        <v>7.4</v>
+        <v>11.1</v>
       </c>
       <c r="C29" s="2">
-        <v>13864</v>
+        <v>109388</v>
       </c>
       <c r="D29" s="2">
-        <v>1868516</v>
+        <v>9848060</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>54436</v>
+        <v>31926</v>
       </c>
       <c r="D30" s="2">
-        <v>2790136</v>
+        <v>2893957</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
-        <v>14.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>19284</v>
+        <v>199828</v>
       </c>
       <c r="D31" s="2">
-        <v>1323459</v>
+        <v>19552860</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="C32" s="2">
-        <v>51670</v>
+        <v>51658</v>
       </c>
       <c r="D32" s="2">
-        <v>8899339</v>
+        <v>5420380</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1">
-        <v>40.5</v>
+        <v>9.5</v>
       </c>
       <c r="C33" s="2">
-        <v>84471</v>
+        <v>6863</v>
       </c>
       <c r="D33" s="2">
-        <v>2085287</v>
+        <v>723393</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="C34" s="2">
-        <v>64353</v>
+        <v>62527</v>
       </c>
       <c r="D34" s="2">
-        <v>19651127</v>
+        <v>6626624</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1">
-        <v>11.1</v>
+        <v>9.4</v>
       </c>
       <c r="C35" s="2">
-        <v>109388</v>
+        <v>17429</v>
       </c>
       <c r="D35" s="2">
-        <v>9848060</v>
+        <v>1854304</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1">
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C36" s="2">
-        <v>6863</v>
+        <v>118295</v>
       </c>
       <c r="D36" s="2">
-        <v>723393</v>
+        <v>12882135</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1">
-        <v>11.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C37" s="2">
-        <v>131990</v>
+        <v>11509</v>
       </c>
       <c r="D37" s="2">
-        <v>11570808</v>
+        <v>1328302</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1">
-        <v>12.3</v>
+        <v>8.6</v>
       </c>
       <c r="C38" s="2">
-        <v>47419</v>
+        <v>60009</v>
       </c>
       <c r="D38" s="2">
-        <v>3850568</v>
+        <v>6971406</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="C39" s="2">
-        <v>44811</v>
+        <v>51550</v>
       </c>
       <c r="D39" s="2">
-        <v>3930065</v>
+        <v>6044171</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="C40" s="2">
-        <v>191189</v>
+        <v>44705</v>
       </c>
       <c r="D40" s="2">
-        <v>12773801</v>
+        <v>5742713</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="C41" s="2">
-        <v>3973</v>
+        <v>292877</v>
       </c>
       <c r="D41" s="2">
-        <v>1051511</v>
+        <v>38332521</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1">
-        <v>11.6</v>
+        <v>7.4</v>
       </c>
       <c r="C42" s="2">
-        <v>55286</v>
+        <v>13864</v>
       </c>
       <c r="D42" s="2">
-        <v>4774839</v>
+        <v>1868516</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="C43" s="2">
-        <v>9677</v>
+        <v>20389</v>
       </c>
       <c r="D43" s="2">
-        <v>844877</v>
+        <v>2991207</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1">
-        <v>11.3</v>
+        <v>6.4</v>
       </c>
       <c r="C44" s="2">
-        <v>73320</v>
+        <v>4032</v>
       </c>
       <c r="D44" s="2">
-        <v>6495978</v>
+        <v>626630</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1">
-        <v>12.8</v>
+        <v>6.1</v>
       </c>
       <c r="C45" s="2">
-        <v>337309</v>
+        <v>18880</v>
       </c>
       <c r="D45" s="2">
-        <v>26448193</v>
+        <v>3090416</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1">
-        <v>12.9</v>
+        <v>5.8</v>
       </c>
       <c r="C46" s="2">
-        <v>37490</v>
+        <v>51670</v>
       </c>
       <c r="D46" s="2">
-        <v>2900872</v>
+        <v>8899339</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1">
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C47" s="2">
-        <v>4032</v>
+        <v>7105</v>
       </c>
       <c r="D47" s="2">
-        <v>626630</v>
+        <v>1404054</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
-        <v>30.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C48" s="2">
-        <v>248939</v>
+        <v>32682</v>
       </c>
       <c r="D48" s="2">
-        <v>8260405</v>
+        <v>6692824</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="C49" s="2">
-        <v>60009</v>
+        <v>42855</v>
       </c>
       <c r="D49" s="2">
-        <v>6971406</v>
+        <v>9895622</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>9.4</v>
+        <v>4.2</v>
       </c>
       <c r="C50" s="2">
-        <v>17429</v>
+        <v>3907</v>
       </c>
       <c r="D50" s="2">
-        <v>1854304</v>
+        <v>925749</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="C51" s="2">
-        <v>44705</v>
+        <v>3973</v>
       </c>
       <c r="D51" s="2">
-        <v>5742713</v>
+        <v>1051511</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1">
-        <v>195.7</v>
+        <v>3.3</v>
       </c>
       <c r="C52" s="2">
-        <v>114052</v>
+        <v>64353</v>
       </c>
       <c r="D52" s="2">
-        <v>582658</v>
+        <v>19651127</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D52">
-    <sortState ref="B2:G52">
-      <sortCondition ref="E1:E52"/>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E52">
+      <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>20.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>19.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>19.7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>18.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C3">
+    <sortState ref="A4:C54">
+      <sortCondition descending="1" ref="C3:C54"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>19.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/alldata.xlsx
+++ b/data/alldata.xlsx
@@ -724,7 +724,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/alldata.xlsx
+++ b/data/alldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="119">
   <si>
     <t>Wyoming</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>Centers for Disease Control and Prevention, National Center for Health Statistics. Underlying Cause of Death 1999-2015 on [CDC WONDER Online Database](http://wonder.cdc.gov/), released 2016. Data are from the Multiple Cause of Death Files, 1999-2015, as compiled from data provided by the 57 vital statistics jurisdictions through the Vital Statistics Cooperative Program. Accessed at http://wonder.cdc.gov/ucd-icd10.html on May 1, 2017.</t>
+  </si>
+  <si>
+    <t>Firearms Death Rate/100,000</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -724,7 +730,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,240 +754,240 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
-        <v>195.7</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>114052</v>
+        <v>96744</v>
       </c>
       <c r="D2" s="2">
-        <v>582658</v>
+        <v>4833722</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
-        <v>66.400000000000006</v>
+        <v>15.2</v>
       </c>
       <c r="C3" s="2">
-        <v>42897</v>
+        <v>11167</v>
       </c>
       <c r="D3" s="2">
-        <v>646449</v>
+        <v>735132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
-        <v>41.6</v>
+        <v>9.4</v>
       </c>
       <c r="C4" s="2">
-        <v>123130</v>
+        <v>62527</v>
       </c>
       <c r="D4" s="2">
-        <v>2959373</v>
+        <v>6626624</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="C5" s="2">
-        <v>84471</v>
+        <v>123130</v>
       </c>
       <c r="D5" s="2">
-        <v>2085287</v>
+        <v>2959373</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
-        <v>30.1</v>
+        <v>7.6</v>
       </c>
       <c r="C6" s="2">
-        <v>248939</v>
+        <v>292877</v>
       </c>
       <c r="D6" s="2">
-        <v>8260405</v>
+        <v>38332521</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
-        <v>24.2</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>39019</v>
+        <v>63178</v>
       </c>
       <c r="D7" s="2">
-        <v>1612136</v>
+        <v>5268367</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
-        <v>20</v>
+        <v>11.3</v>
       </c>
       <c r="C8" s="2">
-        <v>96744</v>
+        <v>40740</v>
       </c>
       <c r="D8" s="2">
-        <v>4833722</v>
+        <v>3596080</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>19.5</v>
+        <v>4.2</v>
       </c>
       <c r="C9" s="2">
-        <v>54436</v>
+        <v>3907</v>
       </c>
       <c r="D9" s="2">
-        <v>2790136</v>
+        <v>925749</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
-        <v>15.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C10" s="2">
-        <v>11167</v>
+        <v>42897</v>
       </c>
       <c r="D10" s="2">
-        <v>735132</v>
+        <v>646449</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
-        <v>15.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>69668</v>
+        <v>199828</v>
       </c>
       <c r="D11" s="2">
-        <v>4625470</v>
+        <v>19552860</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C12" s="2">
-        <v>88732</v>
+        <v>145412</v>
       </c>
       <c r="D12" s="2">
-        <v>5928814</v>
+        <v>9992167</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1">
-        <v>15</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="2">
-        <v>191189</v>
+        <v>7105</v>
       </c>
       <c r="D13" s="2">
-        <v>12773801</v>
+        <v>1404054</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1">
-        <v>14.6</v>
+        <v>24.2</v>
       </c>
       <c r="C14" s="2">
-        <v>145412</v>
+        <v>39019</v>
       </c>
       <c r="D14" s="2">
-        <v>9992167</v>
+        <v>1612136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1">
-        <v>14.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C15" s="2">
-        <v>19284</v>
+        <v>118295</v>
       </c>
       <c r="D15" s="2">
-        <v>1323459</v>
+        <v>12882135</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1003,620 +1009,620 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1">
-        <v>13.5</v>
+        <v>6.1</v>
       </c>
       <c r="C17" s="2">
-        <v>59240</v>
+        <v>18880</v>
       </c>
       <c r="D17" s="2">
-        <v>4395295</v>
+        <v>3090416</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
-        <v>12.9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>37490</v>
+        <v>31926</v>
       </c>
       <c r="D18" s="2">
-        <v>2900872</v>
+        <v>2893957</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="C19" s="2">
-        <v>337309</v>
+        <v>59240</v>
       </c>
       <c r="D19" s="2">
-        <v>26448193</v>
+        <v>4395295</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
-        <v>12.3</v>
+        <v>15.1</v>
       </c>
       <c r="C20" s="2">
-        <v>47419</v>
+        <v>69668</v>
       </c>
       <c r="D20" s="2">
-        <v>3850568</v>
+        <v>4625470</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
-        <v>12</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C21" s="2">
-        <v>63178</v>
+        <v>11509</v>
       </c>
       <c r="D21" s="2">
-        <v>5268367</v>
+        <v>1328302</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>55286</v>
+        <v>88732</v>
       </c>
       <c r="D22" s="2">
-        <v>4774839</v>
+        <v>5928814</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
-        <v>11.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C23" s="2">
-        <v>9677</v>
+        <v>32682</v>
       </c>
       <c r="D23" s="2">
-        <v>844877</v>
+        <v>6692824</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1">
-        <v>11.4</v>
+        <v>4.3</v>
       </c>
       <c r="C24" s="2">
-        <v>131990</v>
+        <v>42855</v>
       </c>
       <c r="D24" s="2">
-        <v>11570808</v>
+        <v>9895622</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="C25" s="2">
-        <v>44811</v>
+        <v>51658</v>
       </c>
       <c r="D25" s="2">
-        <v>3930065</v>
+        <v>5420380</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1">
-        <v>11.3</v>
+        <v>6.8</v>
       </c>
       <c r="C26" s="2">
-        <v>40740</v>
+        <v>20389</v>
       </c>
       <c r="D26" s="2">
-        <v>3596080</v>
+        <v>2991207</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
-        <v>11.3</v>
+        <v>8.5</v>
       </c>
       <c r="C27" s="2">
-        <v>11461</v>
+        <v>51550</v>
       </c>
       <c r="D27" s="2">
-        <v>1015165</v>
+        <v>6044171</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1">
         <v>11.3</v>
       </c>
       <c r="C28" s="2">
-        <v>73320</v>
+        <v>11461</v>
       </c>
       <c r="D28" s="2">
-        <v>6495978</v>
+        <v>1015165</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
-        <v>11.1</v>
+        <v>7.4</v>
       </c>
       <c r="C29" s="2">
-        <v>109388</v>
+        <v>13864</v>
       </c>
       <c r="D29" s="2">
-        <v>9848060</v>
+        <v>1868516</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="C30" s="2">
-        <v>31926</v>
+        <v>54436</v>
       </c>
       <c r="D30" s="2">
-        <v>2893957</v>
+        <v>2790136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
-        <v>10.199999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="C31" s="2">
-        <v>199828</v>
+        <v>19284</v>
       </c>
       <c r="D31" s="2">
-        <v>19552860</v>
+        <v>1323459</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="C32" s="2">
-        <v>51658</v>
+        <v>51670</v>
       </c>
       <c r="D32" s="2">
-        <v>5420380</v>
+        <v>8899339</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
-        <v>9.5</v>
+        <v>40.5</v>
       </c>
       <c r="C33" s="2">
-        <v>6863</v>
+        <v>84471</v>
       </c>
       <c r="D33" s="2">
-        <v>723393</v>
+        <v>2085287</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="C34" s="2">
-        <v>62527</v>
+        <v>64353</v>
       </c>
       <c r="D34" s="2">
-        <v>6626624</v>
+        <v>19651127</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="C35" s="2">
-        <v>17429</v>
+        <v>109388</v>
       </c>
       <c r="D35" s="2">
-        <v>1854304</v>
+        <v>9848060</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="C36" s="2">
-        <v>118295</v>
+        <v>6863</v>
       </c>
       <c r="D36" s="2">
-        <v>12882135</v>
+        <v>723393</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1">
-        <v>8.6999999999999993</v>
+        <v>11.4</v>
       </c>
       <c r="C37" s="2">
-        <v>11509</v>
+        <v>131990</v>
       </c>
       <c r="D37" s="2">
-        <v>1328302</v>
+        <v>11570808</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1">
-        <v>8.6</v>
+        <v>12.3</v>
       </c>
       <c r="C38" s="2">
-        <v>60009</v>
+        <v>47419</v>
       </c>
       <c r="D38" s="2">
-        <v>6971406</v>
+        <v>3850568</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1">
-        <v>8.5</v>
+        <v>11.4</v>
       </c>
       <c r="C39" s="2">
-        <v>51550</v>
+        <v>44811</v>
       </c>
       <c r="D39" s="2">
-        <v>6044171</v>
+        <v>3930065</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>44705</v>
+        <v>191189</v>
       </c>
       <c r="D40" s="2">
-        <v>5742713</v>
+        <v>12773801</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="C41" s="2">
-        <v>292877</v>
+        <v>3973</v>
       </c>
       <c r="D41" s="2">
-        <v>38332521</v>
+        <v>1051511</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1">
-        <v>7.4</v>
+        <v>11.6</v>
       </c>
       <c r="C42" s="2">
-        <v>13864</v>
+        <v>55286</v>
       </c>
       <c r="D42" s="2">
-        <v>1868516</v>
+        <v>4774839</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="C43" s="2">
-        <v>20389</v>
+        <v>9677</v>
       </c>
       <c r="D43" s="2">
-        <v>2991207</v>
+        <v>844877</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1">
-        <v>6.4</v>
+        <v>11.3</v>
       </c>
       <c r="C44" s="2">
-        <v>4032</v>
+        <v>73320</v>
       </c>
       <c r="D44" s="2">
-        <v>626630</v>
+        <v>6495978</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1">
-        <v>6.1</v>
+        <v>12.8</v>
       </c>
       <c r="C45" s="2">
-        <v>18880</v>
+        <v>337309</v>
       </c>
       <c r="D45" s="2">
-        <v>3090416</v>
+        <v>26448193</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1">
-        <v>5.8</v>
+        <v>12.9</v>
       </c>
       <c r="C46" s="2">
-        <v>51670</v>
+        <v>37490</v>
       </c>
       <c r="D46" s="2">
-        <v>8899339</v>
+        <v>2900872</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B47" s="1">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="C47" s="2">
-        <v>7105</v>
+        <v>4032</v>
       </c>
       <c r="D47" s="2">
-        <v>1404054</v>
+        <v>626630</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1">
-        <v>4.9000000000000004</v>
+        <v>30.1</v>
       </c>
       <c r="C48" s="2">
-        <v>32682</v>
+        <v>248939</v>
       </c>
       <c r="D48" s="2">
-        <v>6692824</v>
+        <v>8260405</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="C49" s="2">
-        <v>42855</v>
+        <v>60009</v>
       </c>
       <c r="D49" s="2">
-        <v>9895622</v>
+        <v>6971406</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="C50" s="2">
-        <v>3907</v>
+        <v>17429</v>
       </c>
       <c r="D50" s="2">
-        <v>925749</v>
+        <v>1854304</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="C51" s="2">
-        <v>3973</v>
+        <v>44705</v>
       </c>
       <c r="D51" s="2">
-        <v>1051511</v>
+        <v>5742713</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1">
-        <v>3.3</v>
+        <v>195.7</v>
       </c>
       <c r="C52" s="2">
-        <v>64353</v>
+        <v>114052</v>
       </c>
       <c r="D52" s="2">
-        <v>19651127</v>
+        <v>582658</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
     <sortState ref="A2:E52">
-      <sortCondition descending="1" ref="B1:B52"/>
+      <sortCondition ref="E1:E52"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1656,24 +1662,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>23.4</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="F5" t="s">
         <v>112</v>
@@ -1681,13 +1687,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>19.8</v>
+        <v>13.8</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
@@ -1695,24 +1701,24 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>19.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>19.7</v>
+        <v>7.7</v>
       </c>
       <c r="F8" t="s">
         <v>114</v>
@@ -1720,24 +1726,24 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>19.399999999999999</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>18.600000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -1745,13 +1751,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>18.2</v>
+        <v>12.1</v>
       </c>
       <c r="F11" t="s">
         <v>116</v>
@@ -1759,481 +1765,481 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>17.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>15.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>15.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>14.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>14.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>13.8</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>12.9</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>12.8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>12.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>12.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>12.1</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>11.9</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>11.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>11.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C33">
-        <v>11.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C34">
-        <v>11.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>11.4</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>11.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C38">
-        <v>10.9</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>10.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C40">
-        <v>9.8000000000000007</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>9.8000000000000007</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C43">
-        <v>9.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>8.9</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C46">
-        <v>7.8</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>7.7</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>7.4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>5.3</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>4.7</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:C3">
     <sortState ref="A4:C54">
-      <sortCondition descending="1" ref="C3:C54"/>
+      <sortCondition ref="B3:B54"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,419 +2248,742 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
         <v>19.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="D3" s="4">
         <v>23.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="D4" s="4">
         <v>13.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="D5" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D6" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
         <v>12.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="D8" s="4">
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D9" s="4">
         <v>12.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D10" s="4">
         <v>15.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D11" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="D12" s="4">
         <v>14.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D13" s="4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="D14" s="4">
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D15" s="4">
         <v>9.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="D16" s="4">
         <v>12.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D17" s="4">
         <v>7.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4">
         <v>11.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="D19" s="4">
         <v>15.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="D20" s="4">
         <v>20.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D21" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
         <v>11.9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D23" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D24" s="4">
         <v>11.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D25" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D26" s="4">
         <v>19.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D27" s="4">
         <v>18.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="D28" s="4">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="D29" s="4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="D30" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="D31" s="4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="D32" s="4">
         <v>5.4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="D33" s="4">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D34" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="D35" s="4">
         <v>12.6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D36" s="4">
         <v>12.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D37" s="4">
         <v>11.9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B37">
+      <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="D39" s="4">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4">
         <v>11.4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D41" s="4">
         <v>4.7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D42" s="4">
         <v>17.3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D43" s="4">
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="D44" s="4">
         <v>15.9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="D45" s="4">
         <v>11.8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="D46" s="4">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="D47" s="4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="D48" s="4">
         <v>10.9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D49" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="D50" s="4">
         <v>14.1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D51" s="4">
         <v>10.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>195.7</v>
+      </c>
+      <c r="D52" s="4">
         <v>19.8</v>
       </c>
     </row>

--- a/data/alldata.xlsx
+++ b/data/alldata.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-19740" yWindow="-4200" windowWidth="10000" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="131">
   <si>
     <t>Wyoming</t>
   </si>
@@ -390,6 +391,42 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Unarmed Civilians</t>
+  </si>
+  <si>
+    <t>Armed Civilians</t>
+  </si>
+  <si>
+    <t>Before Law Enforcement</t>
+  </si>
+  <si>
+    <t>Shooter's Initiative</t>
+  </si>
+  <si>
+    <t>Suicide before police arrived</t>
+  </si>
+  <si>
+    <t>Armed off-duty police officers</t>
+  </si>
+  <si>
+    <t>Suicide after police arrived but before police action</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Exchanged gunfire with law enforcement</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A33" workbookViewId="0">
       <selection sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
@@ -2990,4 +3027,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <f>B2/160</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C20" si="0">B3/160</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.23125000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.13125000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/alldata.xlsx
+++ b/data/alldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19740" yWindow="-4200" windowWidth="10000" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3034,7 +3034,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
